--- a/working_hour.xlsx
+++ b/working_hour.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wss/Desktop/whited/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FC1EC-81F4-4B46-9FAC-95042878C9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24520" windowHeight="15000" xr2:uid="{FD889020-B65F-EC42-A943-BAE81722F8FD}"/>
+    <workbookView xWindow="735" yWindow="465" windowWidth="24525" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,14 +49,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cmd+;</t>
+    <t>cmd+;
+ctrl+shift+;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -102,7 +97,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -112,12 +107,89 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -137,7 +209,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="8EDB98"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -172,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -224,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -418,79 +490,90 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE87C86-3AAD-1346-AAF1-FB319FDAA1C1}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>43971</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="e">
-        <f>TEXT(C3-B3,"h:mm")</f>
+      <c r="C4" s="1">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>TEXT(C4-B4,"h:mm")</f>
+        <v>2:17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5:D16" si="0">TEXT(C5-B5,"h:mm")</f>
+        <v>9:56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D6" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D15" si="0">TEXT(C4-B4,"h:mm")</f>
-        <v>0:00</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0:00</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0:00</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -525,13 +608,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="1" t="str">
-        <f>TEXT(C12-B12,"h:mm")</f>
+        <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(C13-B13,"h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
@@ -543,6 +626,12 @@
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
@@ -550,5 +639,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/working_hour.xlsx
+++ b/working_hour.xlsx
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,7 +501,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -571,15 +571,24 @@
       <c r="B6" s="4">
         <v>0.5395833333333333</v>
       </c>
-      <c r="D6" s="1" t="e">
+      <c r="C6" s="5">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>8:05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="D7" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0:00</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/working_hour.xlsx
+++ b/working_hour.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wss/Dropbox/documents/whited/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30656135-14F5-9940-9E5F-25832BF7873A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="465" windowWidth="24525" windowHeight="15000"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24520" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -122,74 +128,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -490,26 +428,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
+    <col min="2" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="28.5">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -586,9 +524,12 @@
       <c r="B7" s="4">
         <v>0.47013888888888888</v>
       </c>
-      <c r="D7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="C7" s="1">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6:37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
